--- a/uploads/ProyectoNuevo/ProyectoNuevo Taltal.xlsx
+++ b/uploads/ProyectoNuevo/ProyectoNuevo Taltal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto Taltal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ProyectoNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AE854A7-34A7-40DE-8191-5F85A33D2C0A}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F460D99-9BFD-4056-9E49-E0220D5E8046}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="530" windowWidth="14040" windowHeight="9790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>15</v>
